--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Payments/OnlinePaymentsReportFromTBank.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Payments/OnlinePaymentsReportFromTBank.xlsx
@@ -32,10 +32,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
   <si>
-    <t xml:space="preserve">Отчет по оплатам online c {{Startdate.ToString("dd.MM.yyyy")}} по {{Enddate.ToString)"dd.MM.yyyy")}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сформирован: {{CreatedAt.ToString("dd.MM.yyyy hh:mm:ss")}}</t>
+    <t xml:space="preserve">Отчет по оплатам online c {{StartDateString}} по {{EndDateString}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сформирован: {{CreatedAtString}}</t>
   </si>
   <si>
     <t xml:space="preserve">Магазин: {{Shop}}</t>
@@ -295,43 +295,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -460,8 +460,8 @@
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34:G35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Payments/OnlinePaymentsReportFromTBank.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Payments/OnlinePaymentsReportFromTBank.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="false" name="FutureOverpaidOrders" vbProcedure="false">Лист1!$A$14:$J$15</definedName>
     <definedName function="false" hidden="false" name="FuturePaidOrders" vbProcedure="false">Лист1!$A$8:$J$9</definedName>
+    <definedName function="false" hidden="false" name="FuturePaymentMissingOrders" vbProcedure="false">Лист1!$A$11:$J$12</definedName>
     <definedName function="false" hidden="false" name="FutureUnderpaidOrders" vbProcedure="false">Лист1!$A$17:$J$18</definedName>
     <definedName function="false" hidden="false" name="OverpaidOrders" vbProcedure="false">Лист1!$A$27:$J$28</definedName>
     <definedName function="false" hidden="false" name="PaidOrders" vbProcedure="false">Лист1!$A$21:$J$22</definedName>
@@ -165,8 +166,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -290,7 +293,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -303,6 +306,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -316,10 +323,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -333,6 +340,14 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -461,7 +476,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -493,435 +508,535 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
+    <row r="12" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
+    <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
+    <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
+    <row r="22" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
+    <row r="25" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
+    <row r="28" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10"/>
+    <row r="31" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="9" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="14">
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
     <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A16:J16"/>
     <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A32:G32"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Payments/OnlinePaymentsReportFromTBank.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Payments/OnlinePaymentsReportFromTBank.xlsx
@@ -251,12 +251,30 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF813709"/>
+        <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77BC65"/>
+        <bgColor rgb="FF99CC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDE59"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -293,7 +311,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -322,7 +340,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -334,12 +352,36 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -359,6 +401,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFDE59"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF77BC65"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF813709"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -476,7 +578,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -640,36 +742,37 @@
       <c r="J10" s="7"/>
     </row>
     <row r="11" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="11" t="s">
         <v>23</v>
       </c>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
@@ -686,36 +789,37 @@
       <c r="J13" s="7"/>
     </row>
     <row r="14" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="14" t="s">
         <v>23</v>
       </c>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11"/>
+      <c r="A15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
@@ -732,36 +836,37 @@
       <c r="J16" s="7"/>
     </row>
     <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="17" t="s">
         <v>23</v>
       </c>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11"/>
+      <c r="A18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
@@ -821,7 +926,7 @@
       </c>
     </row>
     <row r="22" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
@@ -838,36 +943,37 @@
       <c r="J23" s="7"/>
     </row>
     <row r="24" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="11" t="s">
         <v>23</v>
       </c>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10"/>
+      <c r="A25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
@@ -884,36 +990,37 @@
       <c r="J26" s="7"/>
     </row>
     <row r="27" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="14" t="s">
         <v>23</v>
       </c>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11"/>
+      <c r="A28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
@@ -930,47 +1037,48 @@
       <c r="J29" s="7"/>
     </row>
     <row r="30" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="17" t="s">
         <v>23</v>
       </c>
+      <c r="J30" s="17"/>
     </row>
     <row r="31" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11"/>
+      <c r="A31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -999,7 +1107,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="9" t="s">

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Payments/OnlinePaymentsReportFromTBank.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Payments/OnlinePaymentsReportFromTBank.xlsx
@@ -311,7 +311,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -345,7 +345,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -353,11 +357,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -365,11 +369,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -377,11 +381,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -389,7 +393,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -578,7 +582,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="A8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -697,7 +701,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -725,8 +729,9 @@
       <c r="I8" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>24</v>
@@ -741,38 +746,38 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+    <row r="11" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
@@ -788,38 +793,38 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
+    <row r="14" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
@@ -835,38 +840,38 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+    <row r="17" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
@@ -896,7 +901,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
@@ -924,9 +929,10 @@
       <c r="I21" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
@@ -942,38 +948,38 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+    <row r="24" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
@@ -989,38 +995,38 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
+    <row r="27" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15"/>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
@@ -1036,49 +1042,49 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="s">
+    <row r="30" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J30" s="17"/>
-    </row>
-    <row r="31" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15"/>
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -1107,7 +1113,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="9" t="s">

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Payments/OnlinePaymentsReportFromTBank.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Payments/OnlinePaymentsReportFromTBank.xlsx
@@ -260,8 +260,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF813709"/>
-        <bgColor rgb="FF993366"/>
+        <fgColor rgb="FFFD7979"/>
+        <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -428,7 +428,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFD7979"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -459,7 +459,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF813709"/>
+      <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -582,7 +582,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="A8:J8"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Payments/OnlinePaymentsReportFromTBank.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Payments/OnlinePaymentsReportFromTBank.xlsx
@@ -260,8 +260,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFD7979"/>
-        <bgColor rgb="FFFF99CC"/>
+        <fgColor rgb="FF813709"/>
+        <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
     <fill>
@@ -428,7 +428,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFD7979"/>
+      <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -459,7 +459,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF813709"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -582,7 +582,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="A8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
